--- a/src/main/resources/public/birthday_form.xlsx
+++ b/src/main/resources/public/birthday_form.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -293,7 +293,16 @@
     <t xml:space="preserve">ACB - CN CHAU VAN LIEM</t>
   </si>
   <si>
-    <t xml:space="preserve">PHAM THI B</t>
+    <t xml:space="preserve">LY HUNG XUONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0904716790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
   </si>
   <si>
     <t xml:space="preserve">Vang</t>
@@ -302,16 +311,16 @@
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">NGUYEN VAN A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOANG NGUYEN C</t>
+    <t xml:space="preserve">TRAM BAO KHUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYEN NGOC KIM LOAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0903111112</t>
   </si>
   <si>
     <t xml:space="preserve">KHUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NGUYEN THI B</t>
   </si>
 </sst>
 </file>
@@ -321,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -342,6 +351,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -368,8 +384,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF008000"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -388,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -403,8 +432,29 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,40 +478,85 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="DataPilot Category" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Normal" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -473,18 +568,21 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -550,70 +648,74 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6" t="n">
         <v>411503</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>1298371923</v>
-      </c>
-      <c r="F3" s="5" t="n">
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="n">
         <v>1298371523</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="G3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>411504</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2342342342</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="C4" s="13" t="n">
+        <v>4078477</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>23</v>
       </c>
     </row>
